--- a/lesson3/Indicator_TC female ASM.xlsx
+++ b/lesson3/Indicator_TC female ASM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/94b8d9aaa8a4bf12/Documents/GitHub/DataAnalysiswithRUdacity/lesson3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengn\OneDrive\Documents\GitHub\DataAnalysiswithRUdacity\lesson3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Download" sheetId="5" r:id="rId5"/>
     <sheet name="v" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -740,7 +740,7 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>TC female (mmol/L)</t>
+    <t>Total Cholesterol (TC) female (mmol/L)</t>
   </si>
 </sst>
 </file>
@@ -1390,7 +1390,7 @@
   <dimension ref="A1:AD200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
